--- a/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>48143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38406</v>
+        <v>38035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58812</v>
+        <v>58870</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1818741738930026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1450897265418241</v>
+        <v>0.1436897076606352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2221811019542627</v>
+        <v>0.2223991928484092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -762,19 +762,19 @@
         <v>73634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61905</v>
+        <v>63088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85549</v>
+        <v>84507</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2454919451506175</v>
+        <v>0.2454919451506176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2063867199269956</v>
+        <v>0.2103308991185703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2852132907984294</v>
+        <v>0.2817417687347566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -783,19 +783,19 @@
         <v>121777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106758</v>
+        <v>106806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137419</v>
+        <v>139144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2156684287937239</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1890705031406289</v>
+        <v>0.189155151706214</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2433701346128886</v>
+        <v>0.24642480458482</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17997</v>
+        <v>18226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34805</v>
+        <v>34544</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09707054511865247</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06798803659980661</v>
+        <v>0.06885491778270901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1314854992867365</v>
+        <v>0.1304996286379519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -833,19 +833,19 @@
         <v>31413</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24323</v>
+        <v>23921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41018</v>
+        <v>40506</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1047292601860068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08109274277352603</v>
+        <v>0.07974981721584129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1367498439541678</v>
+        <v>0.1350458417085765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -854,19 +854,19 @@
         <v>57108</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45906</v>
+        <v>46890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70467</v>
+        <v>70647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.101138914130671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08129970200404467</v>
+        <v>0.08304276731509733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1247972024874941</v>
+        <v>0.125116822637519</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>29839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21834</v>
+        <v>21501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40982</v>
+        <v>40422</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1127244938069939</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08248500962079099</v>
+        <v>0.0812270850405851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1548229798554687</v>
+        <v>0.1527077447395138</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>116</v>
@@ -904,19 +904,19 @@
         <v>63300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52804</v>
+        <v>53568</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74367</v>
+        <v>74168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.211039463714444</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1760453015559857</v>
+        <v>0.1785933402616633</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2479358403734733</v>
+        <v>0.2472697950003691</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>155</v>
@@ -925,19 +925,19 @@
         <v>93139</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>80351</v>
+        <v>80078</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>109206</v>
+        <v>109454</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1649501704996745</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1423032867215491</v>
+        <v>0.1418193327701779</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1934047733628557</v>
+        <v>0.1938436126198502</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>54165</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42290</v>
+        <v>41855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67893</v>
+        <v>66283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2046252477804759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1597647511772414</v>
+        <v>0.1581190924976999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2564885062132379</v>
+        <v>0.2504046471413804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -975,19 +975,19 @@
         <v>64016</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54568</v>
+        <v>53778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76171</v>
+        <v>75736</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2134260752986382</v>
+        <v>0.2134260752986383</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1819273885401965</v>
+        <v>0.1792926566568237</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2539490930950142</v>
+        <v>0.2524971473806328</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -996,19 +996,19 @@
         <v>118181</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103379</v>
+        <v>102297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135835</v>
+        <v>136068</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2093003158095286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1830845434139329</v>
+        <v>0.1811694415577966</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2405645848411365</v>
+        <v>0.2409788651550266</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>106862</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90634</v>
+        <v>91341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122229</v>
+        <v>122383</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4037055394008749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3423986798454657</v>
+        <v>0.3450692648536172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4617577834281768</v>
+        <v>0.4623418262128273</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>111</v>
@@ -1046,19 +1046,19 @@
         <v>67582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56707</v>
+        <v>57048</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78543</v>
+        <v>79564</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2253132556502933</v>
+        <v>0.2253132556502934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1890576450314251</v>
+        <v>0.1901947429050348</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2618575365504215</v>
+        <v>0.2652609855291276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>226</v>
@@ -1067,19 +1067,19 @@
         <v>174444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>155407</v>
+        <v>155321</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>196426</v>
+        <v>196724</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.308942170766402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2752270350278295</v>
+        <v>0.2750748961630504</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3478735485469321</v>
+        <v>0.3483996872006423</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>58769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47103</v>
+        <v>44983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75346</v>
+        <v>74218</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05817913792099636</v>
+        <v>0.05817913792099635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04663040605191177</v>
+        <v>0.04453203375838162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07458987174939673</v>
+        <v>0.07347394477300855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1192,19 +1192,19 @@
         <v>49485</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39967</v>
+        <v>38532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61723</v>
+        <v>60737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05165523327753851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04171952835098049</v>
+        <v>0.04022101582120673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06442972627140202</v>
+        <v>0.06340047203906729</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1213,19 +1213,19 @@
         <v>108254</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91135</v>
+        <v>91263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128913</v>
+        <v>126819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05500359671991208</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04630566705239093</v>
+        <v>0.04637051207615137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06550056458878566</v>
+        <v>0.06443662987463493</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>37008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27585</v>
+        <v>27678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50336</v>
+        <v>49991</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03663659830804375</v>
+        <v>0.03663659830804374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02730784863209172</v>
+        <v>0.02740030776964263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04983067196536226</v>
+        <v>0.04948974108324367</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -1263,19 +1263,19 @@
         <v>29589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21380</v>
+        <v>21738</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39697</v>
+        <v>41681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03088683342231338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02231704459317274</v>
+        <v>0.02269129857676993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04143753135072568</v>
+        <v>0.04350857921624701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>88</v>
@@ -1284,19 +1284,19 @@
         <v>66597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53766</v>
+        <v>55173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>81435</v>
+        <v>81966</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03383787326697588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02731814878884618</v>
+        <v>0.02803338726582201</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04137682263698043</v>
+        <v>0.04164653407988315</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>105412</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>85677</v>
+        <v>88483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>125852</v>
+        <v>126934</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1043550808652211</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08481811140804305</v>
+        <v>0.08759545809676608</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1245900809618604</v>
+        <v>0.1256608052811138</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>131</v>
@@ -1334,19 +1334,19 @@
         <v>90716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77001</v>
+        <v>75581</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109415</v>
+        <v>107246</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09469353984802856</v>
+        <v>0.09469353984802854</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08037758074843532</v>
+        <v>0.07889489391668517</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1142127168689232</v>
+        <v>0.1119485030156915</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>244</v>
@@ -1355,19 +1355,19 @@
         <v>196128</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>171774</v>
+        <v>174787</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>222820</v>
+        <v>221294</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09965228043468033</v>
+        <v>0.09965228043468034</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0872777888776264</v>
+        <v>0.08880868225424203</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.113214330107485</v>
+        <v>0.1124390218308697</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>335774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>305068</v>
+        <v>305887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>369245</v>
+        <v>369939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.332405909728633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3020081779017746</v>
+        <v>0.3028186841644398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3655414065159059</v>
+        <v>0.3662291702705936</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>458</v>
@@ -1405,19 +1405,19 @@
         <v>312267</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>289831</v>
+        <v>288501</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>337132</v>
+        <v>336517</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3259594013862083</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.302539260549903</v>
+        <v>0.3011504949435396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3519137036394046</v>
+        <v>0.3512722125358759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>782</v>
@@ -1426,19 +1426,19 @@
         <v>648041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>607721</v>
+        <v>611770</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>688080</v>
+        <v>689045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3292680415402879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3087813868449334</v>
+        <v>0.3108389437334335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3496119129157554</v>
+        <v>0.3501022869360743</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>473169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436723</v>
+        <v>438975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502856</v>
+        <v>506483</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4684232731771059</v>
+        <v>0.4684232731771058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4323425807051757</v>
+        <v>0.4345726150660045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4978128275557626</v>
+        <v>0.5014028930460579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>655</v>
@@ -1476,19 +1476,19 @@
         <v>475937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445859</v>
+        <v>451414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501924</v>
+        <v>504701</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4968049920659114</v>
+        <v>0.4968049920659113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4654086822288885</v>
+        <v>0.4712074492423496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5239321237830433</v>
+        <v>0.5268305513189107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1089</v>
@@ -1497,19 +1497,19 @@
         <v>949106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>903867</v>
+        <v>903477</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>991371</v>
+        <v>988367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4822382080381438</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4592525937432052</v>
+        <v>0.4590542857764692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5037130302981201</v>
+        <v>0.5021868752835486</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>7175</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3564</v>
+        <v>3656</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12303</v>
+        <v>12437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01872197588597325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009300322940852221</v>
+        <v>0.00953887293021771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03210345527348411</v>
+        <v>0.03245329545088607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1622,19 +1622,19 @@
         <v>10308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6313</v>
+        <v>6441</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16659</v>
+        <v>16532</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02872048337795526</v>
+        <v>0.02872048337795527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0175895359039308</v>
+        <v>0.01794788638547395</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04641621823837971</v>
+        <v>0.04606354711906829</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1643,19 +1643,19 @@
         <v>17483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11756</v>
+        <v>11604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24074</v>
+        <v>24408</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02355725657060897</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01584116939724456</v>
+        <v>0.01563586562954867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03243912760355559</v>
+        <v>0.03288881429762925</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>9637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5202</v>
+        <v>5188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16005</v>
+        <v>16134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02514559530817935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01357503439870698</v>
+        <v>0.01353864705712817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04176377530021889</v>
+        <v>0.04209942404767623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1693,19 +1693,19 @@
         <v>5741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2671</v>
+        <v>2694</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10698</v>
+        <v>10623</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01599705682906746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007443104329304341</v>
+        <v>0.007506687285608291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02980952420931787</v>
+        <v>0.02959871768762922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1714,19 +1714,19 @@
         <v>15378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9203</v>
+        <v>9948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23526</v>
+        <v>23304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02072135984741985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01240026745481932</v>
+        <v>0.01340409230046276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03170125594396658</v>
+        <v>0.03140102086978821</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>33021</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23735</v>
+        <v>24400</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43523</v>
+        <v>44650</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08616249840593287</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06193425347081973</v>
+        <v>0.06366782105933423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1135668993451286</v>
+        <v>0.1165081769408683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -1764,19 +1764,19 @@
         <v>26901</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20301</v>
+        <v>19864</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35443</v>
+        <v>35107</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.07495546993575651</v>
+        <v>0.07495546993575654</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05656423998481691</v>
+        <v>0.05534902292094054</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09875660341506064</v>
+        <v>0.09781889069865496</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>91</v>
@@ -1785,19 +1785,19 @@
         <v>59922</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47227</v>
+        <v>49013</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73115</v>
+        <v>73660</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08074277667871893</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06363645210802357</v>
+        <v>0.06604389775982947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09852010793402474</v>
+        <v>0.09925410887650973</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>133220</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116081</v>
+        <v>115419</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151846</v>
+        <v>156167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3476195405120999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.302896605822668</v>
+        <v>0.3011702186010276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3962208539553895</v>
+        <v>0.4074965366174992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -1835,19 +1835,19 @@
         <v>125822</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112131</v>
+        <v>111009</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>142435</v>
+        <v>141337</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3505808969125982</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3124347169120515</v>
+        <v>0.3093081299376821</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3968705357582668</v>
+        <v>0.3938102068279544</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>332</v>
@@ -1856,19 +1856,19 @@
         <v>259042</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>235375</v>
+        <v>235816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>283695</v>
+        <v>284461</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3490516531964316</v>
+        <v>0.3490516531964315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.317160586551082</v>
+        <v>0.3177553412696521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3822708156246701</v>
+        <v>0.3833022828307728</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>200183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179941</v>
+        <v>177679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>219814</v>
+        <v>219907</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5223503898878146</v>
+        <v>0.5223503898878145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4695305138727279</v>
+        <v>0.463628665073804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5735740286097083</v>
+        <v>0.5738148356562692</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -1906,19 +1906,19 @@
         <v>190123</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174063</v>
+        <v>173359</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205189</v>
+        <v>206245</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5297460929446225</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4849969028961294</v>
+        <v>0.4830341902614528</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5717229436661746</v>
+        <v>0.5746675329894017</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>427</v>
@@ -1927,19 +1927,19 @@
         <v>390307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>364122</v>
+        <v>364992</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>415931</v>
+        <v>414808</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5259269537068206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4906436566208547</v>
+        <v>0.4918157064273404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5604551875484999</v>
+        <v>0.5589423044915042</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>114086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96646</v>
+        <v>96953</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136284</v>
+        <v>133054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06880655390813463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05828822771634976</v>
+        <v>0.05847346151623013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08219420266590556</v>
+        <v>0.08024600666607704</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>233</v>
@@ -2052,19 +2052,19 @@
         <v>133427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116433</v>
+        <v>117212</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150398</v>
+        <v>151174</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08252376501265696</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.072012805081219</v>
+        <v>0.07249492188127443</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09302016475917189</v>
+        <v>0.09349986028155594</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>391</v>
@@ -2073,19 +2073,19 @@
         <v>247513</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222290</v>
+        <v>222255</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>272088</v>
+        <v>274513</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07557880021853433</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06787681774683148</v>
+        <v>0.0678659192472804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08308259896000754</v>
+        <v>0.08382306037230461</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>72339</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58577</v>
+        <v>59149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>88545</v>
+        <v>87842</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04362862073198704</v>
+        <v>0.04362862073198705</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03532834424439774</v>
+        <v>0.03567336791879164</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05340243754072015</v>
+        <v>0.05297819676771251</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -2123,19 +2123,19 @@
         <v>66744</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>52984</v>
+        <v>53484</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>80644</v>
+        <v>81391</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04128050574160935</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03277017167868334</v>
+        <v>0.03307964015701515</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04987788758161672</v>
+        <v>0.05033941583307536</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>195</v>
@@ -2144,19 +2144,19 @@
         <v>139083</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>121217</v>
+        <v>119749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>158834</v>
+        <v>158903</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04246934622940707</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03701378227911836</v>
+        <v>0.03656566879917993</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04850019045375686</v>
+        <v>0.04852130973337658</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>168271</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>143739</v>
+        <v>146176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>194822</v>
+        <v>196538</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1014862927645979</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08669055637231189</v>
+        <v>0.0881602374067916</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1174989007460752</v>
+        <v>0.1185341093720914</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>295</v>
@@ -2194,19 +2194,19 @@
         <v>180917</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>160985</v>
+        <v>159496</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>202183</v>
+        <v>202044</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1118960165510407</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0995679510937575</v>
+        <v>0.09864678420942262</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1250483984034168</v>
+        <v>0.1249627964766516</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>490</v>
@@ -2215,19 +2215,19 @@
         <v>349189</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>315815</v>
+        <v>318882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>380381</v>
+        <v>380129</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1066256183146564</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09643493134879941</v>
+        <v>0.09737136965612211</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1161501800474751</v>
+        <v>0.1160732976283287</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>523159</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>482143</v>
+        <v>486617</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>559796</v>
+        <v>564215</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3155227398377529</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2907857535386042</v>
+        <v>0.2934835765164936</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3376190429234392</v>
+        <v>0.3402837072338937</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>750</v>
@@ -2265,19 +2265,19 @@
         <v>502105</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>471823</v>
+        <v>470049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>532556</v>
+        <v>536315</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.310548207530249</v>
+        <v>0.3105482075302491</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2918186221011503</v>
+        <v>0.2907219134109144</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3293818316802027</v>
+        <v>0.3317065626630774</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1282</v>
@@ -2286,19 +2286,19 @@
         <v>1025264</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>972439</v>
+        <v>973301</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1083040</v>
+        <v>1077660</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3130667917730366</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2969364009698752</v>
+        <v>0.2971995558188904</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3307088687818359</v>
+        <v>0.3290660349742178</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>780215</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>731786</v>
+        <v>740215</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>821192</v>
+        <v>822743</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4705557927575275</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4413477799481319</v>
+        <v>0.4464315927463344</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4952694054511534</v>
+        <v>0.4962051940975261</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1024</v>
@@ -2336,19 +2336,19 @@
         <v>733641</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>697757</v>
+        <v>703075</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>766732</v>
+        <v>773884</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4537515051644438</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4315574453103195</v>
+        <v>0.4348467034945287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4742179333684579</v>
+        <v>0.4786411146355117</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1742</v>
@@ -2357,19 +2357,19 @@
         <v>1513856</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1461781</v>
+        <v>1456327</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1576298</v>
+        <v>1571609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4622594434643656</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4463581496256364</v>
+        <v>0.4446928541962815</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4813261285024512</v>
+        <v>0.4798945229114359</v>
       </c>
     </row>
     <row r="27">
